--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2577088.491667255</v>
+        <v>-2579687.286637917</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.81230053521914</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>295.2163363185219</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562904</v>
+        <v>43.86785806562892</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458108</v>
+        <v>110.5418770458107</v>
       </c>
       <c r="T2" t="n">
         <v>204.1780969433633</v>
@@ -716,16 +716,16 @@
         <v>250.9999258468059</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>101.9873820759894</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>115.1437096363903</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.90394266080568</v>
+        <v>89.90394266080567</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285532</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516765</v>
+        <v>2.116953416516679</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>153.4694445761985</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0524636397191</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808266</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370429</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>266.3122887997305</v>
+        <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>281.5808908876164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>33.2155532415936</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>101.3230871672202</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>53.49373454636964</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>10.03076501615318</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>122.0083258232801</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>48.20942378949685</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>85.24186011478376</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>210.8180784218843</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>226.9652268912081</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>40.6225301034183</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>30.85302310518101</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176171</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>74.95497330698008</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>161.0175085755503</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856548</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892444</v>
+        <v>35.88641949135449</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545307</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,13 +3241,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541834</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972046</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206859</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096056</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1531.510259740262</v>
+        <v>1134.800491449877</v>
       </c>
       <c r="C2" t="n">
-        <v>1162.547742799851</v>
+        <v>765.8379745094654</v>
       </c>
       <c r="D2" t="n">
-        <v>804.2820441931001</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="E2" t="n">
-        <v>418.4937915948558</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="F2" t="n">
-        <v>418.4937915948558</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="G2" t="n">
-        <v>407.572275902715</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="H2" t="n">
-        <v>109.3739563890565</v>
+        <v>109.3739563890564</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731313</v>
+        <v>248.9490509731318</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032917</v>
+        <v>575.2851091032921</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679883</v>
+        <v>1017.035607679885</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999098</v>
+        <v>1540.2375909991</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778083</v>
+        <v>2076.519337778086</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854077</v>
+        <v>2569.57972285408</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302311</v>
+        <v>2955.894353302314</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704723</v>
+        <v>3197.827805704727</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299841</v>
+        <v>3253.149432299844</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637406</v>
+        <v>3141.490970637409</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674413</v>
+        <v>2935.250468674416</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041275</v>
+        <v>2681.715190041278</v>
       </c>
       <c r="V2" t="n">
-        <v>2681.715190041275</v>
+        <v>2350.652302697707</v>
       </c>
       <c r="W2" t="n">
-        <v>2681.715190041275</v>
+        <v>1997.883647427593</v>
       </c>
       <c r="X2" t="n">
-        <v>2308.249431780196</v>
+        <v>1624.417889166513</v>
       </c>
       <c r="Y2" t="n">
-        <v>1918.110099804384</v>
+        <v>1521.400331513999</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1679.658324549948</v>
+        <v>888.8020873615142</v>
       </c>
       <c r="C3" t="n">
-        <v>1505.20529526882</v>
+        <v>714.3490580803872</v>
       </c>
       <c r="D3" t="n">
-        <v>1356.270885607569</v>
+        <v>598.0422806698919</v>
       </c>
       <c r="E3" t="n">
-        <v>1197.033430602114</v>
+        <v>438.8048256644364</v>
       </c>
       <c r="F3" t="n">
-        <v>1050.498872628999</v>
+        <v>292.2702676913214</v>
       </c>
       <c r="G3" t="n">
-        <v>914.1036568774174</v>
+        <v>155.87505193974</v>
       </c>
       <c r="H3" t="n">
-        <v>823.2915935836743</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="I3" t="n">
-        <v>803.1785680555377</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="J3" t="n">
-        <v>893.8820000749454</v>
+        <v>155.7664206654046</v>
       </c>
       <c r="K3" t="n">
-        <v>1127.063437151131</v>
+        <v>388.947857741591</v>
       </c>
       <c r="L3" t="n">
-        <v>1486.927196831874</v>
+        <v>748.8116174223342</v>
       </c>
       <c r="M3" t="n">
-        <v>1926.228098874589</v>
+        <v>1188.112519465049</v>
       </c>
       <c r="N3" t="n">
-        <v>2391.564633529491</v>
+        <v>1653.449054119951</v>
       </c>
       <c r="O3" t="n">
-        <v>2795.036856668788</v>
+        <v>2056.921277259249</v>
       </c>
       <c r="P3" t="n">
-        <v>3099.525820234323</v>
+        <v>2361.410240824785</v>
       </c>
       <c r="Q3" t="n">
-        <v>3253.149432299841</v>
+        <v>2515.033852890302</v>
       </c>
       <c r="R3" t="n">
-        <v>3251.011095515481</v>
+        <v>2512.895516105942</v>
       </c>
       <c r="S3" t="n">
-        <v>3120.976676118238</v>
+        <v>2382.861096708699</v>
       </c>
       <c r="T3" t="n">
-        <v>2928.204227454517</v>
+        <v>2190.088648044979</v>
       </c>
       <c r="U3" t="n">
-        <v>2700.134267721552</v>
+        <v>1962.018688312013</v>
       </c>
       <c r="V3" t="n">
-        <v>2464.982159489809</v>
+        <v>1726.866580080271</v>
       </c>
       <c r="W3" t="n">
-        <v>2210.744802761607</v>
+        <v>1472.629223352069</v>
       </c>
       <c r="X3" t="n">
-        <v>2002.893302556075</v>
+        <v>1264.777723146536</v>
       </c>
       <c r="Y3" t="n">
-        <v>1847.873661570016</v>
+        <v>1057.017424381582</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.2746427340587</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="C4" t="n">
-        <v>624.2746427340587</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2746427340587</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2746427340587</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="F4" t="n">
-        <v>477.3846952361483</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="G4" t="n">
-        <v>309.6549339839068</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="H4" t="n">
-        <v>163.1983627911527</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599682</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274267</v>
+        <v>75.02005212274277</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033532</v>
+        <v>170.2650045033535</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633492</v>
+        <v>322.0515495633497</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992784</v>
+        <v>485.3474622992791</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206064</v>
+        <v>652.6180891206074</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079663</v>
+        <v>786.8064976079673</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983272</v>
+        <v>882.5658916983284</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529785</v>
+        <v>893.2769546529798</v>
       </c>
       <c r="R4" t="n">
-        <v>893.2769546529785</v>
+        <v>893.2769546529798</v>
       </c>
       <c r="S4" t="n">
-        <v>893.2769546529785</v>
+        <v>893.2769546529798</v>
       </c>
       <c r="T4" t="n">
-        <v>893.2769546529785</v>
+        <v>893.2769546529798</v>
       </c>
       <c r="U4" t="n">
-        <v>624.2746427340587</v>
+        <v>604.1726191626074</v>
       </c>
       <c r="V4" t="n">
-        <v>624.2746427340587</v>
+        <v>349.4881309567205</v>
       </c>
       <c r="W4" t="n">
-        <v>624.2746427340587</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="X4" t="n">
-        <v>624.2746427340587</v>
+        <v>65.06298864599688</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.2746427340587</v>
+        <v>65.06298864599688</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855436</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2653.460376100163</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2300.691720830048</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>1927.225962568968</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919558</v>
+        <v>1537.086630593157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
         <v>2435.471302619336</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877106</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>645.0863150883473</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>645.0863150883473</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="W7" t="n">
-        <v>645.0863150883473</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="X7" t="n">
-        <v>417.09676419033</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.09676419033</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.942324366272</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3276.909433943012</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3023.378957216848</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2692.316069873278</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2339.547414603163</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1966.081656342083</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>1575.942324366272</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>470.4344814746323</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>320.3178420622966</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>320.3178420622966</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>320.3178420622966</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>152.6150054370155</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>152.6150054370155</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>707.9394518566855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V10" t="n">
-        <v>453.2549636507987</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W10" t="n">
-        <v>163.8377936138381</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X10" t="n">
-        <v>163.8377936138381</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>639.3706644025392</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532801</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>847.6442739835327</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>697.527634571197</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038375</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1748.203275569898</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1493.518787364011</v>
+        <v>1936.428221820187</v>
       </c>
       <c r="W13" t="n">
-        <v>1204.10161732705</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>1419.021500885209</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3090381835199</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5270,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>962.6357307816194</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>793.6995478537125</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>643.5829084413767</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>495.6698148589835</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>348.7798673610733</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2371.250989330786</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2151.649524353727</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1862.574297697925</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,40 +5759,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>707.6725264685181</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5920,10 +5920,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987578</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>847.6442739835333</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711975</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888044</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1647.011051783228</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011268</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
         <v>1896.176478190825</v>
@@ -6364,16 +6364,16 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319335</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942654</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6789,16 +6789,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954147</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,16 +6892,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
         <v>898.265941231132</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,13 +7123,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797194</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797194</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797194</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.142269263731</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186988</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380732</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7421,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913858</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,28 +7582,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111685</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075781</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>400.1688487170334</v>
+        <v>410.9811492522526</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>284.2505565800642</v>
       </c>
     </row>
     <row r="3">
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>32.3013559282485</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>19.91189527285528</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>52.21325120110583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22714,16 +22714,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9920054808265</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>97.15402040370427</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456432</v>
+        <v>90.13067551456427</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203904</v>
+        <v>190.2335559203903</v>
       </c>
       <c r="T4" t="n">
         <v>219.6628404482119</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9010033357381</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>4.942107448974582</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>59.21924749803566</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>211.5151132204097</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>134.6711151870878</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>121.5862749664506</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>106.0713126946645</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012173</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405073</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.29805489789</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.096234227283455e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.4555807183</v>
+        <v>16230.45558071832</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
@@ -26323,37 +26323,37 @@
         <v>20178.66499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="P2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660708</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1308430.533701948</v>
+        <v>1308430.533701949</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833879</v>
+        <v>19312.30676833823</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097967</v>
+        <v>232219.4755097969</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940824</v>
+        <v>4661.989000940706</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551185</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>2.22759808821138e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363165</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742</v>
+        <v>572.0114859742005</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997317</v>
       </c>
       <c r="L4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997316</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.499269973</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997306</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997311</v>
+        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26503,7 +26503,7 @@
         <v>103164.1158539154</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539155</v>
+        <v>103164.1158539154</v>
       </c>
       <c r="O5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399282.453730708</v>
+        <v>-1399712.012597297</v>
       </c>
       <c r="C6" t="n">
-        <v>-200316.9471871776</v>
+        <v>-200316.947187177</v>
       </c>
       <c r="D6" t="n">
-        <v>-181004.6404188388</v>
+        <v>-181004.6404188387</v>
       </c>
       <c r="E6" t="n">
-        <v>-421792.9666458921</v>
+        <v>-421827.7045713277</v>
       </c>
       <c r="F6" t="n">
-        <v>-96380.50483853662</v>
+        <v>-96415.2427639723</v>
       </c>
       <c r="G6" t="n">
-        <v>-96380.50483853664</v>
+        <v>-96415.24276397235</v>
       </c>
       <c r="H6" t="n">
-        <v>-96380.50483853664</v>
+        <v>-96415.24276397226</v>
       </c>
       <c r="I6" t="n">
-        <v>-96380.50483853664</v>
+        <v>-96415.24276397233</v>
       </c>
       <c r="J6" t="n">
-        <v>-338285.0463870781</v>
+        <v>-338285.0463870784</v>
       </c>
       <c r="K6" t="n">
-        <v>-110727.5598782223</v>
+        <v>-110727.5598782222</v>
       </c>
       <c r="L6" t="n">
-        <v>-106065.5708772815</v>
+        <v>-106065.5708772814</v>
       </c>
       <c r="M6" t="n">
         <v>-191120.5988127933</v>
       </c>
       <c r="N6" t="n">
-        <v>-106065.5708772816</v>
+        <v>-106065.5708772814</v>
       </c>
       <c r="O6" t="n">
-        <v>-125493.2888709131</v>
+        <v>-125493.2888709133</v>
       </c>
       <c r="P6" t="n">
-        <v>-106065.5708772813</v>
+        <v>-106065.5708772815</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749603</v>
+        <v>813.287358074961</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128093</v>
+        <v>14.78162020128048</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749603</v>
+        <v>813.287358074961</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733171</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749603</v>
+        <v>813.287358074961</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733171</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749603</v>
+        <v>813.287358074961</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733171</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>332.057338529414</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>226.4291713029147</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>232.7181036592432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>242.1068783076748</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>259.9220442489817</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>155.7085463501233</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11.11056029505433</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>75.39375978372854</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-2.371174660259043e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.321588262882478</v>
+        <v>4.32158826288248</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724519</v>
+        <v>44.25846579724521</v>
       </c>
       <c r="I2" t="n">
-        <v>166.6080315047769</v>
+        <v>166.608031504777</v>
       </c>
       <c r="J2" t="n">
-        <v>366.789401826822</v>
+        <v>366.7894018268223</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946375</v>
+        <v>549.7222329946378</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948271</v>
+        <v>681.9790397948276</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648634</v>
+        <v>758.8330850648639</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167784</v>
+        <v>771.1117977167788</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277406</v>
+        <v>728.139004427741</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878294</v>
+        <v>621.4497941878298</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233505</v>
+        <v>466.6829145233508</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182917</v>
+        <v>271.4659687182918</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043456</v>
+        <v>98.47819254043462</v>
       </c>
       <c r="T2" t="n">
-        <v>18.91775262076806</v>
+        <v>18.91775262076807</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305981</v>
+        <v>0.3457270610305984</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145093</v>
+        <v>2.312253569145095</v>
       </c>
       <c r="H3" t="n">
-        <v>22.33150157569078</v>
+        <v>22.33150157569079</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714468</v>
+        <v>79.61048472714472</v>
       </c>
       <c r="J3" t="n">
-        <v>218.4572549690985</v>
+        <v>218.4572549690987</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3782441018198</v>
+        <v>373.37824410182</v>
       </c>
       <c r="L3" t="n">
-        <v>502.0531269321398</v>
+        <v>502.0531269321401</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136493</v>
+        <v>585.8723188136496</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751531</v>
+        <v>601.3786157751534</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851486</v>
+        <v>550.1439445851489</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764873</v>
+        <v>441.5390170764875</v>
       </c>
       <c r="Q3" t="n">
-        <v>295.1571398087667</v>
+        <v>295.1571398087669</v>
       </c>
       <c r="R3" t="n">
-        <v>143.5625505474472</v>
+        <v>143.5625505474473</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056783</v>
+        <v>42.94909590056785</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738335</v>
+        <v>9.32000451773834</v>
       </c>
       <c r="U3" t="n">
-        <v>0.152121945338493</v>
+        <v>0.1521219453384932</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739703</v>
+        <v>1.938515718739704</v>
       </c>
       <c r="H4" t="n">
-        <v>17.23516702661301</v>
+        <v>17.23516702661302</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355399</v>
+        <v>58.29645452355403</v>
       </c>
       <c r="J4" t="n">
-        <v>137.053061314897</v>
+        <v>137.0530613148971</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772127</v>
+        <v>225.2202807772128</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660828</v>
+        <v>288.2044187660829</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475336</v>
+        <v>303.8711503475337</v>
       </c>
       <c r="N4" t="n">
-        <v>296.6457735776858</v>
+        <v>296.645773577686</v>
       </c>
       <c r="O4" t="n">
-        <v>274.0003854087719</v>
+        <v>274.0003854087721</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464818</v>
+        <v>234.4546647464819</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391946</v>
+        <v>162.3242571391947</v>
       </c>
       <c r="R4" t="n">
-        <v>87.16271586260517</v>
+        <v>87.16271586260521</v>
       </c>
       <c r="S4" t="n">
-        <v>33.7830421165819</v>
+        <v>33.78304211658192</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069638</v>
+        <v>8.282748980069643</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221657</v>
+        <v>0.1057372210221658</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>555.0107214892107</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>724.9681211658385</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460039</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33032,10 +33032,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33509,10 +33509,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O33" t="n">
-        <v>338.6542681503486</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>469.5567819573394</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071789</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>375.1407109807888</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663251</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001357</v>
+        <v>185.743497300136</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496569</v>
+        <v>329.6323819496573</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248399</v>
+        <v>446.2126248248404</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375907</v>
+        <v>528.4868518375912</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201875</v>
+        <v>541.698734120188</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060538</v>
+        <v>498.0407930060543</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325599</v>
+        <v>390.2167984325602</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.377224648901</v>
+        <v>244.3772246489013</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415954</v>
+        <v>55.88043090415971</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243183</v>
+        <v>91.61962830243198</v>
       </c>
       <c r="K3" t="n">
-        <v>235.5368051274608</v>
+        <v>235.536805127461</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522656</v>
+        <v>363.4987471522659</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916309</v>
+        <v>443.7382848916313</v>
       </c>
       <c r="N3" t="n">
-        <v>470.0369036918198</v>
+        <v>470.0369036918202</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407041</v>
+        <v>407.5477001407045</v>
       </c>
       <c r="P3" t="n">
-        <v>307.564609662157</v>
+        <v>307.5646096621573</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.1753657227452</v>
+        <v>155.1753657227454</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550087</v>
+        <v>10.05763987550095</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667733</v>
+        <v>96.20702260667747</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848445</v>
+        <v>153.3197424848447</v>
       </c>
       <c r="M4" t="n">
-        <v>164.9453663999285</v>
+        <v>164.9453663999287</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9602291124526</v>
+        <v>168.9602291124528</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569291</v>
+        <v>135.5438469569293</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733418</v>
+        <v>96.72666069733432</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974873</v>
+        <v>10.81925550974884</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35495,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.6690094058774</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096381</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>582.8340872438201</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36680,10 +36680,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37157,10 +37157,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O33" t="n">
-        <v>196.0580237059041</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>327.422748035321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238456</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992802</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.557074493085</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980853</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.6869047919381</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>243.7989988974555</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396388</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930849</v>
